--- a/medicine/Enfance/Anne_Crausaz/Anne_Crausaz.xlsx
+++ b/medicine/Enfance/Anne_Crausaz/Anne_Crausaz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anne Crausaz, née en 1970 à Lausanne (Suisse), est une autrice et illustratrice suisse de littérature jeunesse.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après avoir passé ses premières années dans les Cévennes, Anne Crausaz suit une formation  en illustration à l’école cantonale d'art de Lausanne en spécialité design graphique et elle en sort diplômée en 1997. En 1999, elle obtient la bourse Ateliers pour illustrateurs attribué par l’Office fédéral de la culture, puis travaille pendant un an à Cracovie[1]. En 2002 elle est lauréate du Concours fédéral de design. Depuis 2007, elle se consacre essentiellement à la littérature jeunesse, notamment avec l'éditeur nantais MeMo[2],[3],[4],[5].
-Ses sources d'inspiration sont très liées à la nature, aux animaux, ainsi que les images-affiches de Étienne Delessert, ou Enzo Mari ou bien Bruno Munari[6]. Elle travaille beaucoup avec des outils numériques : palette graphique et images vectorielles.
-Son album J’ai grandi ici a obtenu le prix La Science se livre[7] en 2009 et la même année, Raymond rêve a obtenu le prix Sorcières[8].
-En 2023, elle obtient une seconde fois le Prix Sorcières[9], dans la Catégorie Carrément Beau Mini, pour L'Imagier des sens.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après avoir passé ses premières années dans les Cévennes, Anne Crausaz suit une formation  en illustration à l’école cantonale d'art de Lausanne en spécialité design graphique et elle en sort diplômée en 1997. En 1999, elle obtient la bourse Ateliers pour illustrateurs attribué par l’Office fédéral de la culture, puis travaille pendant un an à Cracovie. En 2002 elle est lauréate du Concours fédéral de design. Depuis 2007, elle se consacre essentiellement à la littérature jeunesse, notamment avec l'éditeur nantais MeMo.
+Ses sources d'inspiration sont très liées à la nature, aux animaux, ainsi que les images-affiches de Étienne Delessert, ou Enzo Mari ou bien Bruno Munari. Elle travaille beaucoup avec des outils numériques : palette graphique et images vectorielles.
+Son album J’ai grandi ici a obtenu le prix La Science se livre en 2009 et la même année, Raymond rêve a obtenu le prix Sorcières.
+En 2023, elle obtient une seconde fois le Prix Sorcières, dans la Catégorie Carrément Beau Mini, pour L'Imagier des sens.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Elle a participé à de nombreuses œuvres[10], dont :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Elle a participé à de nombreuses œuvres, dont :
 Raymond rêve, Memo, 2007
 J'ai grandi ici, Memo, 2008
 Maintenant que tu sais, Memo, 2009
@@ -598,12 +614,14 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Prix La Science se livre¨2009[7] pour  J’ai grandi ici
- Prix Sorcières 2009[8] pour Raymond rêve
-(international) « Honour List » 2014[11] de l'IBBY pour Pas le temps
- Prix Sorcières 2023[9], Catégorie Carrément Beau Mini, pour L'Imagier des sens</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Prix La Science se livre¨2009 pour  J’ai grandi ici
+ Prix Sorcières 2009 pour Raymond rêve
+(international) « Honour List » 2014 de l'IBBY pour Pas le temps
+ Prix Sorcières 2023, Catégorie Carrément Beau Mini, pour L'Imagier des sens</t>
         </is>
       </c>
     </row>
